--- a/06.project/data/rawdata/주유소/연제구_주유소_현황.xlsx
+++ b/06.project/data/rawdata/주유소/연제구_주유소_현황.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\사업장 현황\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="석유판매업대장 현황" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
-  <si>
-    <t>석유판매업대장 현황</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
   <si>
     <t>사업구분</t>
   </si>
@@ -36,9 +28,6 @@
   </si>
   <si>
     <t>등록(신고)관리번호</t>
-  </si>
-  <si>
-    <t>영업소소재지(도로명)</t>
   </si>
   <si>
     <t>영업소소재지(지번)</t>
@@ -353,13 +342,17 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -527,7 +520,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -704,449 +697,444 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="1" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
     <col min="6" max="6" width="39.5" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="30.3984375" customWidth="1"/>
+    <col min="8" max="8" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
